--- a/data/trans_dic/P64D$publico_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P64D$publico_2023-Estudios-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.05662135644608885</v>
+        <v>0.05662135644608884</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1791974255362026</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02478216254828838</v>
+        <v>0.02559392733515215</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1074526296007896</v>
+        <v>0.115215753911427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06448534030319471</v>
+        <v>0.0657606590071257</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09911379505061896</v>
+        <v>0.1043641491922033</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2598127242863331</v>
+        <v>0.2565581642902313</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1393660806294539</v>
+        <v>0.1342098990552842</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07534591739062799</v>
+        <v>0.07467772804892929</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1034685027318823</v>
+        <v>0.1028341086227958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09144385034876443</v>
+        <v>0.09120959055653176</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1104632832954</v>
+        <v>0.110015601720565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.144657159260244</v>
+        <v>0.1453016251515515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1191369405877157</v>
+        <v>0.1203328377872797</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.0648592707290182</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.08629825009161875</v>
+        <v>0.08629825009161873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07552689172277741</v>
+        <v>0.07552689172277738</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04218369113234702</v>
+        <v>0.04336410573081882</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06451436280239299</v>
+        <v>0.06595364306950552</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06074930549338729</v>
+        <v>0.06103868628745843</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09508117872530733</v>
+        <v>0.08998387152655285</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.108201955301804</v>
+        <v>0.1125525622713034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09332741690318282</v>
+        <v>0.09521876183017464</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1143225919492657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09642712309480297</v>
+        <v>0.096427123094803</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06911498394810554</v>
+        <v>0.06892511835107071</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0998772874641755</v>
+        <v>0.09831709409223728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08712095118959483</v>
+        <v>0.08566616763736212</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09793566385933805</v>
+        <v>0.09738904697564921</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1332167947252522</v>
+        <v>0.1296332618257502</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1074603963665662</v>
+        <v>0.1071980843136825</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3993</v>
+        <v>4124</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9031</v>
+        <v>9683</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15811</v>
+        <v>16123</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15971</v>
+        <v>16817</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21836</v>
+        <v>21563</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34170</v>
+        <v>32906</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>95052</v>
+        <v>94209</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>96559</v>
+        <v>95967</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>200698</v>
+        <v>200183</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>139354</v>
+        <v>138789</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>134997</v>
+        <v>135599</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>261477</v>
+        <v>264102</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20179</v>
+        <v>20744</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30564</v>
+        <v>31246</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>57841</v>
+        <v>58116</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45483</v>
+        <v>43045</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51261</v>
+        <v>53322</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>88859</v>
+        <v>90659</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>131390</v>
+        <v>131029</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>148919</v>
+        <v>146593</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>295520</v>
+        <v>290585</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>186179</v>
+        <v>185140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>198629</v>
+        <v>193286</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>364512</v>
+        <v>363623</v>
       </c>
     </row>
     <row r="20">
